--- a/spark/experiments/results-sql-g2.1.csv/g2.1-1t.xlsx
+++ b/spark/experiments/results-sql-g2.1.csv/g2.1-1t.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2-t-1.csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.1.csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,17 +15,17 @@
     <sheet name="part-00000-cb3582b5-4bda-439b-b" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'part-00000-cb3582b5-4bda-439b-b'!$J$51:$J$58</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'part-00000-cb3582b5-4bda-439b-b'!$K$51:$K$58</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'part-00000-cb3582b5-4bda-439b-b'!$D$49:$D$68</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'part-00000-cb3582b5-4bda-439b-b'!$I$51:$I$60</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'part-00000-cb3582b5-4bda-439b-b'!$J$55:$J$62</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'part-00000-cb3582b5-4bda-439b-b'!$K$55:$K$62</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'part-00000-cb3582b5-4bda-439b-b'!$D$49:$D$72</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'part-00000-cb3582b5-4bda-439b-b'!$I$55:$I$64</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -174,13 +174,7 @@
     <t>Difference in timestamps</t>
   </si>
   <si>
-    <t>mean-exp (ns)</t>
-  </si>
-  <si>
     <t>deviation-exp (ns)</t>
-  </si>
-  <si>
-    <t>mean-warmup  (ns)</t>
   </si>
   <si>
     <t>deviation-run (ns)</t>
@@ -193,6 +187,18 @@
   </si>
   <si>
     <t>g2.1-2t</t>
+  </si>
+  <si>
+    <t>percentile95-exp (ns)</t>
+  </si>
+  <si>
+    <t>percentile95-exp (s)</t>
+  </si>
+  <si>
+    <t>percentile-warmup  (ns)</t>
+  </si>
+  <si>
+    <t>percentile95-warmup (s)</t>
   </si>
 </sst>
 </file>
@@ -679,11 +685,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -757,6 +764,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -961,11 +969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-705850992"/>
-        <c:axId val="-705846640"/>
+        <c:axId val="-2134890016"/>
+        <c:axId val="-2134896544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-705850992"/>
+        <c:axId val="-2134890016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,12 +1029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-705846640"/>
+        <c:crossAx val="-2134896544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-705846640"/>
+        <c:axId val="-2134896544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="97000000000"/>
@@ -1085,7 +1093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-705850992"/>
+        <c:crossAx val="-2134890016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1107,6 +1115,392 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'part-00000-cb3582b5-4bda-439b-b'!$D$2:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>104328498849</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98738782791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3524638511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2460334290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96580380256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94929657624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3803669400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1886151941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94822352118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95593367859</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1760112057</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1377991803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94192658446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94832568035</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1672752916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1855493367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95670064627</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94234098313</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1907792231</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1406920634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94770055498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92901367488</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1563100891</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1115095027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94439831984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95130430464</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1371773259</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1377156589</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94048283784</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>94144493714</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2281030570</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1420922586</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>94697255439</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95247702032</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1250749947</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1153151652</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94928294238</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94345576028</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1415623402</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1229086302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2134894368"/>
+        <c:axId val="-2134894912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2134894368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2134894912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2134894912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2134894368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1323,6 +1717,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1920,6 +2354,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3463,7 +4413,7 @@
         <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BB2795-899C-42B6-8D51-B738637C3722}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49BB2795-899C-42B6-8D51-B738637C3722}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3495,7 +4445,7 @@
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns="" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Grafiek 3">
@@ -3573,7 +4523,7 @@
       <xdr:rowOff>91678</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns="" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Grafiek 4">
@@ -3651,7 +4601,7 @@
       <xdr:rowOff>111521</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns="" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Grafiek 5">
@@ -3713,6 +4663,36 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>738188</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4015,10 +4995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="96" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7167,7 +8147,7 @@
         <v>1229086302</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
         <v>27</v>
@@ -7232,18 +8212,18 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D42">
-        <f>AVERAGE(D41,D40,D37,D36,D33,D32,D29,D28,D25,D24,D21,D20,D17,D16,D13,D12,D9,D8,D5,D4)</f>
-        <v>1791677368.75</v>
+        <f>_xlfn.PERCENTILE.EXC((D41,D40,D37,D36,D33,D32,D29,D28,D25,D24,D21,D20,D17,D16,D13,D12,D9,D8,D5,D4),0.95)</f>
+        <v>3789717855.5499997</v>
       </c>
       <c r="E42" s="1">
-        <v>3463867968.4000001</v>
-      </c>
-      <c r="F42" s="1">
+        <v>1554416717.2999997</v>
+      </c>
+      <c r="F42" s="4">
         <f>D42-E42</f>
-        <v>-1672190599.6500001</v>
+        <v>2235301138.25</v>
       </c>
       <c r="I42">
         <f>AVERAGE(I41,I40,I37,I36,I33,I32,I29,I28,I25,I24,I21,I20,I17,I16,I13,I12,I9,I8,I5,I4)</f>
@@ -7256,7 +8236,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43">
         <f>AVEDEV(D41,D40,D37,D36,D33,D32,D29,D28,D25,D24,D21,D20,D17,D16,D13,D12,D9,D8,D5,D4)</f>
@@ -7265,6 +8245,7 @@
       <c r="E43" s="1">
         <v>4468614027.1599989</v>
       </c>
+      <c r="F43" s="4"/>
       <c r="I43">
         <f>AVEDEV(I41,I40,I37,I36,I33,I32,I29,I28,I25,I24,I21,I20,I17,I16,I13,I12,I9,I8,I5,I4)</f>
         <v>376798779.50000012</v>
@@ -7276,18 +8257,18 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <f>AVERAGE(D39,D38,D35,D34,D31,D30,D27,D26,D23,D22,D19,D18,D15,D14,D11,D10,D7,D6,D3,D2)</f>
-        <v>95428785979.350006</v>
+        <f>PERCENTILE((D39,D38,D35,D34,D31,D30,D27,D26,D23,D22,D19,D18,D15,D14,D11,D10),0.95)</f>
+        <v>95612542051</v>
       </c>
       <c r="E44" s="1">
-        <v>92433703828</v>
-      </c>
-      <c r="F44" s="1">
+        <v>99357644473.649994</v>
+      </c>
+      <c r="F44" s="4">
         <f>D44-E44</f>
-        <v>2995082151.3500061</v>
+        <v>-3745102422.6499939</v>
       </c>
       <c r="I44">
         <f>AVERAGE(I39,I38,I35,I34,I31,I30,I27,I26,I23,I22,I19,I18,I15,I14,I11,I10,I7,I6,I3,I2)</f>
@@ -7300,7 +8281,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D45">
         <f>AVEDEV(D39,D38,D35,D34,D31,D30,D27,D26,D23,D22,D19,D18,D15,D14,D11,D10,D7,D6,D3,D2)</f>
@@ -7348,7 +8329,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <f>B46/1000/60</f>
@@ -7376,7 +8357,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <f>B47*60</f>
@@ -7391,325 +8372,341 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
       <c r="D49">
-        <v>3524638511</v>
+        <f>D42/1000/1000/1000</f>
+        <v>3.7897178555499993</v>
       </c>
       <c r="E49">
-        <f>D49/1000000000</f>
-        <v>3.524638511</v>
+        <v>1.5544167172999996</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D50">
-        <v>2460334290</v>
+        <f>D44/1000/1000/1000</f>
+        <v>95.612542050999991</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50:E68" si="1">D50/1000000000</f>
-        <v>2.46033429</v>
-      </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="I50" t="s">
-        <v>43</v>
-      </c>
-      <c r="K50" t="s">
-        <v>28</v>
-      </c>
-      <c r="N50" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>28</v>
-      </c>
-      <c r="S50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D51">
-        <v>3803669400</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>3.8036694</v>
-      </c>
-      <c r="I51">
-        <v>1758576760</v>
-      </c>
-      <c r="K51">
-        <v>1609471543</v>
-      </c>
-      <c r="Q51">
-        <v>5.0279999999999996</v>
-      </c>
-      <c r="S51">
-        <v>98.93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D52">
-        <v>1886151941</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>1.8861519410000001</v>
-      </c>
-      <c r="I52">
-        <v>1420623866</v>
-      </c>
-      <c r="K52">
-        <v>1708025646</v>
-      </c>
-      <c r="Q52">
-        <v>4.617</v>
-      </c>
-      <c r="S52">
-        <v>97.789000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D53">
-        <v>1760112057</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="1"/>
-        <v>1.760112057</v>
-      </c>
-      <c r="I53">
-        <v>1139971895</v>
-      </c>
-      <c r="K53">
-        <v>603283067</v>
-      </c>
-      <c r="Q53">
-        <v>2.298</v>
-      </c>
-      <c r="S53">
-        <v>95.902000000000001</v>
+        <v>99.357644473649998</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
       <c r="D54">
-        <v>1377991803</v>
+        <v>2460334290</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
-        <v>1.377991803</v>
-      </c>
-      <c r="I54">
-        <v>1514172567</v>
-      </c>
-      <c r="K54">
-        <v>579688664</v>
-      </c>
-      <c r="Q54">
-        <v>2.2029999999999998</v>
-      </c>
-      <c r="S54">
-        <v>97.600999999999999</v>
+        <f t="shared" ref="E54:E72" si="1">D54/1000000000</f>
+        <v>2.46033429</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>43</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N54" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>28</v>
+      </c>
+      <c r="S54" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D55">
-        <v>1672752916</v>
+        <v>3803669400</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
-        <v>1.6727529160000001</v>
+        <v>3.8036694</v>
       </c>
       <c r="I55">
-        <v>1158613822</v>
+        <v>1758576760</v>
       </c>
       <c r="K55">
-        <v>567173291</v>
+        <v>1609471543</v>
       </c>
       <c r="Q55">
-        <v>2.4910000000000001</v>
+        <v>5.0279999999999996</v>
       </c>
       <c r="S55">
-        <v>96.411000000000001</v>
+        <v>98.93</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D56">
-        <v>1855493367</v>
+        <v>1886151941</v>
       </c>
       <c r="E56">
         <f t="shared" si="1"/>
-        <v>1.855493367</v>
+        <v>1.8861519410000001</v>
       </c>
       <c r="I56">
-        <v>966941741</v>
+        <v>1420623866</v>
       </c>
       <c r="K56">
-        <v>439455931</v>
+        <v>1708025646</v>
       </c>
       <c r="Q56">
-        <v>2.226</v>
+        <v>4.617</v>
       </c>
       <c r="S56">
-        <v>94.474000000000004</v>
+        <v>97.789000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D57">
-        <v>1907792231</v>
+        <v>1760112057</v>
       </c>
       <c r="E57">
         <f t="shared" si="1"/>
-        <v>1.9077922309999999</v>
+        <v>1.760112057</v>
       </c>
       <c r="I57">
-        <v>1187165760</v>
+        <v>1139971895</v>
       </c>
       <c r="K57">
-        <v>450597382</v>
+        <v>603283067</v>
       </c>
       <c r="Q57">
-        <v>1.772</v>
+        <v>2.298</v>
       </c>
       <c r="S57">
-        <v>94.462999999999994</v>
+        <v>95.902000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D58">
-        <v>1406920634</v>
+        <v>1377991803</v>
       </c>
       <c r="E58">
         <f t="shared" si="1"/>
-        <v>1.406920634</v>
+        <v>1.377991803</v>
       </c>
       <c r="I58">
-        <v>1203442028</v>
+        <v>1514172567</v>
       </c>
       <c r="K58">
-        <v>778849681</v>
+        <v>579688664</v>
       </c>
       <c r="Q58">
-        <v>2.7240000000000002</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="S58">
-        <v>95.84</v>
+        <v>97.600999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D59">
-        <v>1563100891</v>
+        <v>1672752916</v>
       </c>
       <c r="E59">
         <f t="shared" si="1"/>
-        <v>1.5631008909999999</v>
+        <v>1.6727529160000001</v>
       </c>
       <c r="I59">
-        <v>977818530</v>
+        <v>1158613822</v>
       </c>
       <c r="K59">
-        <v>416247240</v>
+        <v>567173291</v>
       </c>
       <c r="Q59">
-        <v>1.6759999999999999</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="S59">
-        <v>96.6</v>
+        <v>96.411000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D60">
-        <v>1115095027</v>
+        <v>1855493367</v>
       </c>
       <c r="E60">
         <f t="shared" si="1"/>
-        <v>1.115095027</v>
+        <v>1.855493367</v>
       </c>
       <c r="I60">
-        <v>997464077</v>
+        <v>966941741</v>
       </c>
       <c r="K60">
-        <v>381496847</v>
+        <v>439455931</v>
       </c>
       <c r="Q60">
-        <v>1.891</v>
+        <v>2.226</v>
+      </c>
+      <c r="S60">
+        <v>94.474000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D61">
-        <v>1371773259</v>
+        <v>1907792231</v>
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
-        <v>1.371773259</v>
+        <v>1.9077922309999999</v>
+      </c>
+      <c r="I61">
+        <v>1187165760</v>
+      </c>
+      <c r="K61">
+        <v>450597382</v>
+      </c>
+      <c r="Q61">
+        <v>1.772</v>
+      </c>
+      <c r="S61">
+        <v>94.462999999999994</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D62">
-        <v>1377156589</v>
+        <v>1406920634</v>
       </c>
       <c r="E62">
         <f t="shared" si="1"/>
-        <v>1.3771565889999999</v>
+        <v>1.406920634</v>
+      </c>
+      <c r="I62">
+        <v>1203442028</v>
+      </c>
+      <c r="K62">
+        <v>778849681</v>
+      </c>
+      <c r="Q62">
+        <v>2.7240000000000002</v>
+      </c>
+      <c r="S62">
+        <v>95.84</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D63">
-        <v>2281030570</v>
+        <v>1563100891</v>
       </c>
       <c r="E63">
         <f t="shared" si="1"/>
-        <v>2.28103057</v>
+        <v>1.5631008909999999</v>
+      </c>
+      <c r="I63">
+        <v>977818530</v>
+      </c>
+      <c r="K63">
+        <v>416247240</v>
+      </c>
+      <c r="Q63">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="S63">
+        <v>96.6</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D64">
-        <v>1420922586</v>
+        <v>1115095027</v>
       </c>
       <c r="E64">
         <f t="shared" si="1"/>
-        <v>1.4209225860000001</v>
+        <v>1.115095027</v>
+      </c>
+      <c r="I64">
+        <v>997464077</v>
+      </c>
+      <c r="K64">
+        <v>381496847</v>
+      </c>
+      <c r="Q64">
+        <v>1.891</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D65">
-        <v>1250749947</v>
+        <v>1371773259</v>
       </c>
       <c r="E65">
         <f t="shared" si="1"/>
-        <v>1.2507499470000001</v>
+        <v>1.371773259</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D66">
-        <v>1153151652</v>
+        <v>1377156589</v>
       </c>
       <c r="E66">
         <f t="shared" si="1"/>
-        <v>1.153151652</v>
+        <v>1.3771565889999999</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67">
-        <v>1415623402</v>
+        <v>2281030570</v>
       </c>
       <c r="E67">
         <f t="shared" si="1"/>
-        <v>1.415623402</v>
+        <v>2.28103057</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D68">
+        <v>1420922586</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>1.4209225860000001</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>1250749947</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>1.2507499470000001</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>1153151652</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>1.153151652</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>1415623402</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>1.415623402</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D72">
         <v>1229086302</v>
       </c>
-      <c r="E68">
+      <c r="E72">
         <f t="shared" si="1"/>
         <v>1.229086302</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>